--- a/data/vinculacion_pgg.xlsx
+++ b/data/vinculacion_pgg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F88B7C-850D-495E-8839-F67AA87DBC0B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25BC6804-589E-481A-8054-3060D0174DF9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10279,9 +10279,6 @@
     <t>Denominación AEI</t>
   </si>
   <si>
-    <t>Vinculación con la PGG</t>
-  </si>
-  <si>
     <t>OEI.01</t>
   </si>
   <si>
@@ -10700,6 +10697,9 @@
   </si>
   <si>
     <t>Gobierno digital implementado en los procesos y servicios de la municipalidad</t>
+  </si>
+  <si>
+    <t>Vinculación AEI con la PGG</t>
   </si>
 </sst>
 </file>
@@ -10776,6 +10776,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11066,7 +11070,7 @@
   <dimension ref="A1:F1892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11092,1067 +11096,1067 @@
         <v>3418</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3419</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B2" t="s">
         <v>3420</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3421</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3422</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3423</v>
       </c>
-      <c r="E2" t="s">
-        <v>3424</v>
-      </c>
       <c r="F2" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B3" t="s">
         <v>3420</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3421</v>
       </c>
-      <c r="C3" t="s">
-        <v>3422</v>
-      </c>
       <c r="D3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E3" t="s">
         <v>3425</v>
       </c>
-      <c r="E3" t="s">
-        <v>3426</v>
-      </c>
       <c r="F3" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B4" t="s">
         <v>3420</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3421</v>
       </c>
-      <c r="C4" t="s">
-        <v>3422</v>
-      </c>
       <c r="D4" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E4" t="s">
         <v>3427</v>
       </c>
-      <c r="E4" t="s">
-        <v>3428</v>
-      </c>
       <c r="F4" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B5" t="s">
         <v>3420</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3421</v>
       </c>
-      <c r="C5" t="s">
-        <v>3422</v>
-      </c>
       <c r="D5" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E5" t="s">
         <v>3429</v>
       </c>
-      <c r="E5" t="s">
-        <v>3430</v>
-      </c>
       <c r="F5" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B6" t="s">
         <v>3420</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3421</v>
       </c>
-      <c r="C6" t="s">
-        <v>3422</v>
-      </c>
       <c r="D6" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E6" t="s">
         <v>3431</v>
       </c>
-      <c r="E6" t="s">
-        <v>3432</v>
-      </c>
       <c r="F6" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B7" t="s">
         <v>3433</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3434</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>3435</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>3436</v>
       </c>
-      <c r="E7" t="s">
-        <v>3437</v>
-      </c>
       <c r="F7" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B8" t="s">
         <v>3433</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3434</v>
       </c>
-      <c r="C8" t="s">
-        <v>3435</v>
-      </c>
       <c r="D8" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E8" t="s">
         <v>3438</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>3439</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3440</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B9" t="s">
         <v>3433</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>3434</v>
       </c>
-      <c r="C9" t="s">
-        <v>3435</v>
-      </c>
       <c r="D9" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E9" t="s">
         <v>3441</v>
       </c>
-      <c r="E9" t="s">
-        <v>3442</v>
-      </c>
       <c r="F9" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B10" t="s">
         <v>3443</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>3444</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>3445</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>3446</v>
       </c>
-      <c r="E10" t="s">
-        <v>3447</v>
-      </c>
       <c r="F10" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B11" t="s">
         <v>3443</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>3444</v>
       </c>
-      <c r="C11" t="s">
-        <v>3445</v>
-      </c>
       <c r="D11" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E11" t="s">
         <v>3448</v>
       </c>
-      <c r="E11" t="s">
-        <v>3449</v>
-      </c>
       <c r="F11" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B12" t="s">
         <v>3443</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>3444</v>
       </c>
-      <c r="C12" t="s">
-        <v>3445</v>
-      </c>
       <c r="D12" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E12" t="s">
         <v>3450</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>3451</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3452</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B13" t="s">
         <v>3453</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>3454</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>3455</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>3456</v>
       </c>
-      <c r="E13" t="s">
-        <v>3457</v>
-      </c>
       <c r="F13" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B14" t="s">
         <v>3453</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>3454</v>
       </c>
-      <c r="C14" t="s">
-        <v>3455</v>
-      </c>
       <c r="D14" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E14" t="s">
         <v>3458</v>
       </c>
-      <c r="E14" t="s">
-        <v>3459</v>
-      </c>
       <c r="F14" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B15" t="s">
         <v>3453</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>3454</v>
       </c>
-      <c r="C15" t="s">
-        <v>3455</v>
-      </c>
       <c r="D15" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E15" t="s">
         <v>3460</v>
       </c>
-      <c r="E15" t="s">
-        <v>3461</v>
-      </c>
       <c r="F15" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B16" t="s">
         <v>3453</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>3454</v>
       </c>
-      <c r="C16" t="s">
-        <v>3455</v>
-      </c>
       <c r="D16" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E16" t="s">
         <v>3462</v>
       </c>
-      <c r="E16" t="s">
-        <v>3463</v>
-      </c>
       <c r="F16" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B17" t="s">
         <v>3453</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>3454</v>
       </c>
-      <c r="C17" t="s">
-        <v>3455</v>
-      </c>
       <c r="D17" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E17" t="s">
         <v>3464</v>
       </c>
-      <c r="E17" t="s">
-        <v>3465</v>
-      </c>
       <c r="F17" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B18" t="s">
         <v>3453</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>3454</v>
       </c>
-      <c r="C18" t="s">
-        <v>3455</v>
-      </c>
       <c r="D18" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E18" t="s">
         <v>3466</v>
       </c>
-      <c r="E18" t="s">
-        <v>3467</v>
-      </c>
       <c r="F18" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B19" t="s">
         <v>3453</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>3454</v>
       </c>
-      <c r="C19" t="s">
-        <v>3455</v>
-      </c>
       <c r="D19" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E19" t="s">
         <v>3468</v>
       </c>
-      <c r="E19" t="s">
-        <v>3469</v>
-      </c>
       <c r="F19" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B20" t="s">
         <v>3470</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>3471</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>3472</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>3473</v>
       </c>
-      <c r="E20" t="s">
-        <v>3474</v>
-      </c>
       <c r="F20" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B21" t="s">
         <v>3470</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>3471</v>
       </c>
-      <c r="C21" t="s">
-        <v>3472</v>
-      </c>
       <c r="D21" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E21" t="s">
         <v>3475</v>
       </c>
-      <c r="E21" t="s">
-        <v>3476</v>
-      </c>
       <c r="F21" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B22" t="s">
         <v>3470</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>3471</v>
       </c>
-      <c r="C22" t="s">
-        <v>3472</v>
-      </c>
       <c r="D22" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E22" t="s">
         <v>3477</v>
       </c>
-      <c r="E22" t="s">
-        <v>3478</v>
-      </c>
       <c r="F22" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B23" t="s">
         <v>3470</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>3471</v>
       </c>
-      <c r="C23" t="s">
-        <v>3472</v>
-      </c>
       <c r="D23" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E23" t="s">
         <v>3479</v>
       </c>
-      <c r="E23" t="s">
-        <v>3480</v>
-      </c>
       <c r="F23" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B24" t="s">
         <v>3470</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>3471</v>
       </c>
-      <c r="C24" t="s">
-        <v>3472</v>
-      </c>
       <c r="D24" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E24" t="s">
         <v>3481</v>
       </c>
-      <c r="E24" t="s">
-        <v>3482</v>
-      </c>
       <c r="F24" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B25" t="s">
         <v>3470</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>3471</v>
       </c>
-      <c r="C25" t="s">
-        <v>3472</v>
-      </c>
       <c r="D25" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E25" t="s">
         <v>3483</v>
       </c>
-      <c r="E25" t="s">
-        <v>3484</v>
-      </c>
       <c r="F25" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B26" t="s">
         <v>3470</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>3471</v>
       </c>
-      <c r="C26" t="s">
-        <v>3472</v>
-      </c>
       <c r="D26" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E26" t="s">
         <v>3485</v>
       </c>
-      <c r="E26" t="s">
-        <v>3486</v>
-      </c>
       <c r="F26" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B27" t="s">
         <v>3470</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>3471</v>
       </c>
-      <c r="C27" t="s">
-        <v>3472</v>
-      </c>
       <c r="D27" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E27" t="s">
         <v>3487</v>
       </c>
-      <c r="E27" t="s">
-        <v>3488</v>
-      </c>
       <c r="F27" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B28" t="s">
         <v>3489</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>3490</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>3491</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>3492</v>
       </c>
-      <c r="E28" t="s">
-        <v>3493</v>
-      </c>
       <c r="F28" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B29" t="s">
         <v>3489</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>3490</v>
       </c>
-      <c r="C29" t="s">
-        <v>3491</v>
-      </c>
       <c r="D29" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E29" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F29" t="s">
         <v>3490</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3491</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B30" t="s">
         <v>3489</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>3490</v>
       </c>
-      <c r="C30" t="s">
-        <v>3491</v>
-      </c>
       <c r="D30" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E30" t="s">
         <v>3495</v>
       </c>
-      <c r="E30" t="s">
-        <v>3496</v>
-      </c>
       <c r="F30" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B31" t="s">
         <v>3489</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>3490</v>
       </c>
-      <c r="C31" t="s">
-        <v>3491</v>
-      </c>
       <c r="D31" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E31" t="s">
         <v>3497</v>
       </c>
-      <c r="E31" t="s">
-        <v>3498</v>
-      </c>
       <c r="F31" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B32" t="s">
         <v>3489</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>3490</v>
       </c>
-      <c r="C32" t="s">
-        <v>3491</v>
-      </c>
       <c r="D32" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E32" t="s">
         <v>3499</v>
       </c>
-      <c r="E32" t="s">
-        <v>3500</v>
-      </c>
       <c r="F32" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B33" t="s">
         <v>3501</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>3502</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>3503</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>3504</v>
       </c>
-      <c r="E33" t="s">
-        <v>3505</v>
-      </c>
       <c r="F33" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B34" t="s">
         <v>3501</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>3502</v>
       </c>
-      <c r="C34" t="s">
-        <v>3503</v>
-      </c>
       <c r="D34" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E34" t="s">
         <v>3506</v>
       </c>
-      <c r="E34" t="s">
-        <v>3507</v>
-      </c>
       <c r="F34" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B35" t="s">
         <v>3501</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>3502</v>
       </c>
-      <c r="C35" t="s">
-        <v>3503</v>
-      </c>
       <c r="D35" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E35" t="s">
         <v>3508</v>
       </c>
-      <c r="E35" t="s">
-        <v>3509</v>
-      </c>
       <c r="F35" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B36" t="s">
         <v>3510</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>3511</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>3512</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>3513</v>
       </c>
-      <c r="E36" t="s">
-        <v>3514</v>
-      </c>
       <c r="F36" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B37" t="s">
         <v>3510</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>3511</v>
       </c>
-      <c r="C37" t="s">
-        <v>3512</v>
-      </c>
       <c r="D37" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E37" t="s">
         <v>3515</v>
       </c>
-      <c r="E37" t="s">
-        <v>3516</v>
-      </c>
       <c r="F37" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B38" t="s">
         <v>3510</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>3511</v>
       </c>
-      <c r="C38" t="s">
-        <v>3512</v>
-      </c>
       <c r="D38" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E38" t="s">
         <v>3517</v>
       </c>
-      <c r="E38" t="s">
-        <v>3518</v>
-      </c>
       <c r="F38" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B39" t="s">
         <v>3519</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>3520</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>3521</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>3522</v>
       </c>
-      <c r="E39" t="s">
-        <v>3523</v>
-      </c>
       <c r="F39" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B40" t="s">
         <v>3519</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>3520</v>
       </c>
-      <c r="C40" t="s">
-        <v>3521</v>
-      </c>
       <c r="D40" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E40" t="s">
         <v>3524</v>
       </c>
-      <c r="E40" t="s">
-        <v>3525</v>
-      </c>
       <c r="F40" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B41" t="s">
         <v>3519</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>3520</v>
       </c>
-      <c r="C41" t="s">
-        <v>3521</v>
-      </c>
       <c r="D41" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E41" t="s">
         <v>3526</v>
       </c>
-      <c r="E41" t="s">
-        <v>3527</v>
-      </c>
       <c r="F41" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B42" t="s">
         <v>3519</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>3520</v>
       </c>
-      <c r="C42" t="s">
-        <v>3521</v>
-      </c>
       <c r="D42" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E42" t="s">
         <v>3528</v>
       </c>
-      <c r="E42" t="s">
-        <v>3529</v>
-      </c>
       <c r="F42" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B43" t="s">
         <v>3519</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>3520</v>
       </c>
-      <c r="C43" t="s">
-        <v>3521</v>
-      </c>
       <c r="D43" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E43" t="s">
         <v>3530</v>
       </c>
-      <c r="E43" t="s">
-        <v>3531</v>
-      </c>
       <c r="F43" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B44" t="s">
         <v>3519</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>3520</v>
       </c>
-      <c r="C44" t="s">
-        <v>3521</v>
-      </c>
       <c r="D44" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E44" t="s">
         <v>3532</v>
       </c>
-      <c r="E44" t="s">
-        <v>3533</v>
-      </c>
       <c r="F44" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B45" t="s">
         <v>3534</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>3535</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>3536</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>3537</v>
       </c>
-      <c r="E45" t="s">
-        <v>3538</v>
-      </c>
       <c r="F45" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B46" t="s">
         <v>3534</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>3535</v>
       </c>
-      <c r="C46" t="s">
-        <v>3536</v>
-      </c>
       <c r="D46" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E46" t="s">
         <v>3539</v>
       </c>
-      <c r="E46" t="s">
-        <v>3540</v>
-      </c>
       <c r="F46" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B47" t="s">
         <v>3534</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>3535</v>
       </c>
-      <c r="C47" t="s">
-        <v>3536</v>
-      </c>
       <c r="D47" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E47" t="s">
         <v>3541</v>
       </c>
-      <c r="E47" t="s">
-        <v>3542</v>
-      </c>
       <c r="F47" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B48" t="s">
         <v>3534</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>3535</v>
       </c>
-      <c r="C48" t="s">
-        <v>3536</v>
-      </c>
       <c r="D48" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E48" t="s">
         <v>3543</v>
       </c>
-      <c r="E48" t="s">
-        <v>3544</v>
-      </c>
       <c r="F48" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B49" t="s">
         <v>3545</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>3546</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>3547</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>3548</v>
       </c>
-      <c r="E49" t="s">
-        <v>3549</v>
-      </c>
       <c r="F49" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B50" t="s">
         <v>3545</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>3546</v>
       </c>
-      <c r="C50" t="s">
-        <v>3547</v>
-      </c>
       <c r="D50" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E50" t="s">
         <v>3550</v>
       </c>
-      <c r="E50" t="s">
-        <v>3551</v>
-      </c>
       <c r="F50" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B51" t="s">
         <v>3545</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>3546</v>
       </c>
-      <c r="C51" t="s">
-        <v>3547</v>
-      </c>
       <c r="D51" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E51" t="s">
         <v>3552</v>
       </c>
-      <c r="E51" t="s">
-        <v>3553</v>
-      </c>
       <c r="F51" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B52" t="s">
         <v>3545</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>3546</v>
       </c>
-      <c r="C52" t="s">
-        <v>3547</v>
-      </c>
       <c r="D52" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E52" t="s">
         <v>3554</v>
       </c>
-      <c r="E52" t="s">
-        <v>3555</v>
-      </c>
       <c r="F52" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B53" t="s">
         <v>3545</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>3546</v>
       </c>
-      <c r="C53" t="s">
-        <v>3547</v>
-      </c>
       <c r="D53" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E53" t="s">
         <v>3556</v>
       </c>
-      <c r="E53" t="s">
-        <v>3557</v>
-      </c>
       <c r="F53" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B54" t="s">
         <v>3545</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>3546</v>
       </c>
-      <c r="C54" t="s">
-        <v>3547</v>
-      </c>
       <c r="D54" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E54" t="s">
         <v>3558</v>
       </c>
-      <c r="E54" t="s">
-        <v>3559</v>
-      </c>
       <c r="F54" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">

--- a/data/vinculacion_pgg.xlsx
+++ b/data/vinculacion_pgg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f73cd49b1817ad/Documentos/GitHub/PEI_GL_generador/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25BC6804-589E-481A-8054-3060D0174DF9}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_496D7A8F835C6C4F6B4304B75B245E3FB48F8F96" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E1E4F3-C756-428C-8AA3-57C16B4C7BFD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10264,18 +10264,12 @@
     <t>LAMBRAS</t>
   </si>
   <si>
-    <t>Cod_OEI</t>
-  </si>
-  <si>
     <t>Denominación OEI</t>
   </si>
   <si>
     <t>Vinculación OEI con la PGG</t>
   </si>
   <si>
-    <t>Cod AEI</t>
-  </si>
-  <si>
     <t>Denominación AEI</t>
   </si>
   <si>
@@ -10700,6 +10694,12 @@
   </si>
   <si>
     <t>Vinculación AEI con la PGG</t>
+  </si>
+  <si>
+    <t>Código OEI</t>
+  </si>
+  <si>
+    <t>Código AEI</t>
   </si>
 </sst>
 </file>
@@ -10776,10 +10776,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11070,7 +11066,7 @@
   <dimension ref="A1:F1892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11081,1082 +11077,1082 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3414</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3416</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3417</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3418</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C2" t="s">
         <v>3419</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3420</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>3421</v>
       </c>
-      <c r="D2" t="s">
-        <v>3422</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3423</v>
-      </c>
       <c r="F2" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C3" t="s">
         <v>3419</v>
       </c>
-      <c r="B3" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3421</v>
-      </c>
       <c r="D3" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="E3" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="F3" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C4" t="s">
         <v>3419</v>
       </c>
-      <c r="B4" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3421</v>
-      </c>
       <c r="D4" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="E4" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="F4" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C5" t="s">
         <v>3419</v>
       </c>
-      <c r="B5" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3421</v>
-      </c>
       <c r="D5" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="E5" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="F5" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C6" t="s">
         <v>3419</v>
       </c>
-      <c r="B6" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3421</v>
-      </c>
       <c r="D6" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="E6" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="F6" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C7" t="s">
         <v>3432</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>3433</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>3434</v>
       </c>
-      <c r="D7" t="s">
-        <v>3435</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3436</v>
-      </c>
       <c r="F7" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C8" t="s">
         <v>3432</v>
       </c>
-      <c r="B8" t="s">
-        <v>3433</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3434</v>
-      </c>
       <c r="D8" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F8" t="s">
         <v>3437</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3438</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C9" t="s">
         <v>3432</v>
       </c>
-      <c r="B9" t="s">
-        <v>3433</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3434</v>
-      </c>
       <c r="D9" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="E9" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="F9" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C10" t="s">
         <v>3442</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>3443</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>3444</v>
       </c>
-      <c r="D10" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3446</v>
-      </c>
       <c r="F10" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C11" t="s">
         <v>3442</v>
       </c>
-      <c r="B11" t="s">
-        <v>3443</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3444</v>
-      </c>
       <c r="D11" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E11" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="F11" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C12" t="s">
         <v>3442</v>
       </c>
-      <c r="B12" t="s">
-        <v>3443</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3444</v>
-      </c>
       <c r="D12" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F12" t="s">
         <v>3449</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3450</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3451</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C13" t="s">
         <v>3452</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>3453</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>3454</v>
       </c>
-      <c r="D13" t="s">
-        <v>3455</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3456</v>
-      </c>
       <c r="F13" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C14" t="s">
         <v>3452</v>
       </c>
-      <c r="B14" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3454</v>
-      </c>
       <c r="D14" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="E14" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="F14" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C15" t="s">
         <v>3452</v>
       </c>
-      <c r="B15" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3454</v>
-      </c>
       <c r="D15" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="E15" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="F15" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C16" t="s">
         <v>3452</v>
       </c>
-      <c r="B16" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3454</v>
-      </c>
       <c r="D16" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="E16" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="F16" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C17" t="s">
         <v>3452</v>
       </c>
-      <c r="B17" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3454</v>
-      </c>
       <c r="D17" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="E17" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="F17" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C18" t="s">
         <v>3452</v>
       </c>
-      <c r="B18" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3454</v>
-      </c>
       <c r="D18" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="E18" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="F18" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C19" t="s">
         <v>3452</v>
       </c>
-      <c r="B19" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3454</v>
-      </c>
       <c r="D19" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="E19" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="F19" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C20" t="s">
         <v>3469</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>3470</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>3471</v>
       </c>
-      <c r="D20" t="s">
-        <v>3472</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3473</v>
-      </c>
       <c r="F20" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C21" t="s">
         <v>3469</v>
       </c>
-      <c r="B21" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3471</v>
-      </c>
       <c r="D21" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="E21" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="F21" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C22" t="s">
         <v>3469</v>
       </c>
-      <c r="B22" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3471</v>
-      </c>
       <c r="D22" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="E22" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="F22" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C23" t="s">
         <v>3469</v>
       </c>
-      <c r="B23" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3471</v>
-      </c>
       <c r="D23" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="E23" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="F23" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C24" t="s">
         <v>3469</v>
       </c>
-      <c r="B24" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3471</v>
-      </c>
       <c r="D24" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="E24" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="F24" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C25" t="s">
         <v>3469</v>
       </c>
-      <c r="B25" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3471</v>
-      </c>
       <c r="D25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="E25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="F25" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C26" t="s">
         <v>3469</v>
       </c>
-      <c r="B26" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3471</v>
-      </c>
       <c r="D26" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="E26" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="F26" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C27" t="s">
         <v>3469</v>
       </c>
-      <c r="B27" t="s">
-        <v>3470</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3471</v>
-      </c>
       <c r="D27" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="E27" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="F27" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C28" t="s">
         <v>3488</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>3489</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>3490</v>
       </c>
-      <c r="D28" t="s">
-        <v>3491</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3492</v>
-      </c>
       <c r="F28" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C29" t="s">
         <v>3488</v>
       </c>
-      <c r="B29" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3490</v>
-      </c>
       <c r="D29" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="E29" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="F29" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C30" t="s">
         <v>3488</v>
       </c>
-      <c r="B30" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3490</v>
-      </c>
       <c r="D30" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="E30" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="F30" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C31" t="s">
         <v>3488</v>
       </c>
-      <c r="B31" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3490</v>
-      </c>
       <c r="D31" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="E31" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="F31" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C32" t="s">
         <v>3488</v>
       </c>
-      <c r="B32" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3490</v>
-      </c>
       <c r="D32" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="E32" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="F32" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C33" t="s">
         <v>3500</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>3501</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>3502</v>
       </c>
-      <c r="D33" t="s">
-        <v>3503</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3504</v>
-      </c>
       <c r="F33" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C34" t="s">
         <v>3500</v>
       </c>
-      <c r="B34" t="s">
-        <v>3501</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3502</v>
-      </c>
       <c r="D34" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="E34" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="F34" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C35" t="s">
         <v>3500</v>
       </c>
-      <c r="B35" t="s">
-        <v>3501</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3502</v>
-      </c>
       <c r="D35" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="E35" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="F35" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C36" t="s">
         <v>3509</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>3510</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>3511</v>
       </c>
-      <c r="D36" t="s">
-        <v>3512</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3513</v>
-      </c>
       <c r="F36" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C37" t="s">
         <v>3509</v>
       </c>
-      <c r="B37" t="s">
-        <v>3510</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3511</v>
-      </c>
       <c r="D37" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="E37" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="F37" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C38" t="s">
         <v>3509</v>
       </c>
-      <c r="B38" t="s">
-        <v>3510</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3511</v>
-      </c>
       <c r="D38" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="E38" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="F38" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C39" t="s">
         <v>3518</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>3519</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>3520</v>
       </c>
-      <c r="D39" t="s">
-        <v>3521</v>
-      </c>
-      <c r="E39" t="s">
-        <v>3522</v>
-      </c>
       <c r="F39" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C40" t="s">
         <v>3518</v>
       </c>
-      <c r="B40" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3520</v>
-      </c>
       <c r="D40" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="E40" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="F40" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C41" t="s">
         <v>3518</v>
       </c>
-      <c r="B41" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3520</v>
-      </c>
       <c r="D41" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="E41" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="F41" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C42" t="s">
         <v>3518</v>
       </c>
-      <c r="B42" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3520</v>
-      </c>
       <c r="D42" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="E42" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="F42" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C43" t="s">
         <v>3518</v>
       </c>
-      <c r="B43" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3520</v>
-      </c>
       <c r="D43" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="E43" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="F43" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C44" t="s">
         <v>3518</v>
       </c>
-      <c r="B44" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3520</v>
-      </c>
       <c r="D44" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="E44" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="F44" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C45" t="s">
         <v>3533</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>3534</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>3535</v>
       </c>
-      <c r="D45" t="s">
-        <v>3536</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3537</v>
-      </c>
       <c r="F45" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C46" t="s">
         <v>3533</v>
       </c>
-      <c r="B46" t="s">
-        <v>3534</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3535</v>
-      </c>
       <c r="D46" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="E46" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="F46" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C47" t="s">
         <v>3533</v>
       </c>
-      <c r="B47" t="s">
-        <v>3534</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3535</v>
-      </c>
       <c r="D47" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="E47" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="F47" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C48" t="s">
         <v>3533</v>
       </c>
-      <c r="B48" t="s">
-        <v>3534</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3535</v>
-      </c>
       <c r="D48" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="E48" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="F48" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C49" t="s">
         <v>3544</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>3545</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>3546</v>
       </c>
-      <c r="D49" t="s">
-        <v>3547</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3548</v>
-      </c>
       <c r="F49" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C50" t="s">
         <v>3544</v>
       </c>
-      <c r="B50" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3546</v>
-      </c>
       <c r="D50" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="E50" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="F50" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C51" t="s">
         <v>3544</v>
       </c>
-      <c r="B51" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3546</v>
-      </c>
       <c r="D51" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="E51" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="F51" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C52" t="s">
         <v>3544</v>
       </c>
-      <c r="B52" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3546</v>
-      </c>
       <c r="D52" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="E52" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="F52" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C53" t="s">
         <v>3544</v>
       </c>
-      <c r="B53" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3546</v>
-      </c>
       <c r="D53" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="E53" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="F53" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C54" t="s">
         <v>3544</v>
       </c>
-      <c r="B54" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3546</v>
-      </c>
       <c r="D54" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="E54" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="F54" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">

--- a/data/vinculacion_pgg.xlsx
+++ b/data/vinculacion_pgg.xlsx
@@ -10776,6 +10776,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11066,7 +11070,7 @@
   <dimension ref="A1:F1892"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
